--- a/SourceCode/2023/Oct2023/Basics/Nazeer/Task27/Task27.xlsx
+++ b/SourceCode/2023/Oct2023/Basics/Nazeer/Task27/Task27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazee\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\Oct2023\Basics\Nazeer\Task27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996193F-8033-4733-BA55-9870A44B7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA91DFCB-F0C5-4173-977D-98F14D69DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -370,7 +370,7 @@
   <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="H9" sqref="H9"/>
+      <x:selection activeCell="B7" sqref="B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +379,7 @@
     <x:col min="3" max="3" width="9.109375" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -393,116 +393,116 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>-63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>-40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="n">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>-13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>-20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>-20</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
